--- a/dimonade/sources/ghm/rgp_atih/regroupement_racinesghm_v2020.xlsx
+++ b/dimonade/sources/ghm/rgp_atih/regroupement_racinesghm_v2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/shiny.ehoh/oncle_ghm/sources/rgp_atih/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/dimonade/sources/ghm/rgp_atih/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8383F47C-DE98-FA4B-B9F5-902CD646EDA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1615EFF-1D86-DF47-AB9A-C7C2002B9633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="80" windowWidth="24780" windowHeight="12160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,13 +23,6 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
